--- a/TrackModel/trackData/RedLine.xlsx
+++ b/TrackModel/trackData/RedLine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="8_{5EB43690-1D4F-4934-BBB3-BD20CB8703B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022DB9CE-8DF2-4019-A69D-73B698843D78}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="8_{5EB43690-1D4F-4934-BBB3-BD20CB8703B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCB5556C-8F29-447C-B3E4-58FB340723F5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08686E32-804F-406E-AD85-9F8933DC79CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Line</t>
   </si>
@@ -208,6 +208,9 @@
   <si>
     <t>IorO</t>
   </si>
+  <si>
+    <t>Yard</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,11 +327,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -345,10 +359,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2178A43-3C40-4266-92C4-0E9FE44E2BDB}">
   <dimension ref="A1:T154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="119" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54:T77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,248 +766,245 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
         <v>40</v>
       </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G33" si="0">E2*D2/100</f>
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4">
-        <f>G2</f>
-        <v>0.25</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>16</v>
-      </c>
-      <c r="O2" s="10">
-        <v>2</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f>A2</f>
-        <v>Red</v>
+      <c r="A3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
-        <v>2</v>
+      <c r="C3" s="13">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
       </c>
       <c r="G3" s="4">
+        <f t="shared" ref="G3:G34" si="0">E3*D3/100</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3</f>
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>16</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <f>A3</f>
+        <v>Red</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H3" s="4">
-        <f>G3+H2</f>
+      <c r="H4" s="4">
+        <f>G4+H3</f>
         <v>0.75</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10">
         <v>3</v>
       </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A67" si="1">A3</f>
-        <v>Red</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f t="shared" ref="A5:A68" si="1">A4</f>
+        <v>Red</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>50</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>40</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H67" si="2">G4+H3</f>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H68" si="2">G5+H4</f>
         <v>1.5</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
         <v>2</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O5" s="10">
         <v>4</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3</v>
-      </c>
-      <c r="O5" s="11">
-        <v>5</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
@@ -1023,25 +1030,25 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14">
-        <v>5</v>
+      <c r="C6" s="13">
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>50</v>
       </c>
       <c r="E6" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="2"/>
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1059,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P6" s="7">
         <v>0</v>
@@ -1089,24 +1096,24 @@
         <v>10</v>
       </c>
       <c r="C7" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>50</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="3">
         <v>40</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1124,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7" s="11">
-        <v>7</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -1151,36 +1158,36 @@
         <v>Red</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="14">
+        <v>6</v>
       </c>
       <c r="D8" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
+        <v>3.75</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1188,14 +1195,14 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="8">
-        <v>6</v>
+      <c r="N8" s="7">
+        <v>5</v>
       </c>
       <c r="O8" s="11">
-        <v>8</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
@@ -1218,34 +1225,34 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14">
-        <v>8</v>
+      <c r="C9" s="13">
+        <v>7</v>
       </c>
       <c r="D9" s="3">
         <v>75</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>4.125</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1253,14 +1260,14 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>7</v>
+      <c r="N9" s="8">
+        <v>6</v>
       </c>
       <c r="O9" s="11">
-        <v>9</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
@@ -1284,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <v>75</v>
@@ -1318,25 +1325,25 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="8">
-        <v>8</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7" t="b">
+      <c r="N10" s="7">
+        <v>7</v>
+      </c>
+      <c r="O10" s="11">
+        <v>9</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1346,10 +1353,10 @@
         <v>Red</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="14">
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>75</v>
@@ -1377,31 +1384,31 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="6">
-        <v>1</v>
+      <c r="L11" s="7">
+        <v>0</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>9</v>
-      </c>
-      <c r="O11" s="11">
-        <v>11</v>
+      <c r="N11" s="8">
+        <v>8</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="P11" s="7">
         <v>0</v>
       </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
+      <c r="Q11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1413,25 +1420,25 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14">
-        <v>11</v>
+      <c r="C12" s="13">
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>75</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>40</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>4.125</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1442,17 +1449,17 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="7">
-        <v>0</v>
+      <c r="L12" s="6">
+        <v>1</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7">
         <v>0</v>
@@ -1478,25 +1485,25 @@
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13">
-        <v>12</v>
+      <c r="C13" s="14">
+        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>75</v>
       </c>
       <c r="E13" s="3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="F13" s="3">
         <v>40</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>-0.375</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1514,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
@@ -1541,27 +1548,27 @@
         <v>Red</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="14">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="13">
+        <v>12</v>
       </c>
       <c r="D14" s="3">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="3">
         <v>40</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>-1.4</v>
+        <v>-0.75</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1579,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O14" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7">
         <v>0</v>
@@ -1609,24 +1616,24 @@
         <v>13</v>
       </c>
       <c r="C15" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="F15" s="3">
         <v>40</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>-1.4</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="2"/>
-        <v>0.85000000000000009</v>
+        <v>1.6</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1644,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O15" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7">
         <v>0</v>
@@ -1673,25 +1680,25 @@
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13">
-        <v>15</v>
+      <c r="C16" s="14">
+        <v>14</v>
       </c>
       <c r="D16" s="3">
         <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="F16" s="3">
         <v>40</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>-0.6</v>
+        <v>-0.75</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="2"/>
-        <v>0.25000000000000011</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="I16" s="7">
         <v>0</v>
@@ -1709,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O16" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7">
         <v>0</v>
@@ -1736,36 +1743,36 @@
         <v>Red</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="13">
+        <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="3">
         <v>40</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-0.6</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
       </c>
       <c r="L17" s="7">
         <v>0</v>
@@ -1773,26 +1780,26 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>50</v>
+      <c r="N17" s="7">
+        <v>14</v>
       </c>
       <c r="O17" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7">
         <v>0</v>
       </c>
-      <c r="Q17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7" t="b">
-        <v>1</v>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -1803,34 +1810,34 @@
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="13">
-        <v>17</v>
+      <c r="C18" s="14">
+        <v>16</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>-0.5</v>
       </c>
       <c r="F18" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
       </c>
       <c r="L18" s="7">
         <v>0</v>
@@ -1838,26 +1845,26 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7">
-        <v>16</v>
+      <c r="N18" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="O18" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7">
         <v>0</v>
       </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0</v>
+      <c r="Q18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -1868,26 +1875,25 @@
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="14">
-        <v>18</v>
+      <c r="C19" s="13">
+        <v>17</v>
       </c>
       <c r="D19" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E19" s="3">
-        <f>-100*0.241/400</f>
-        <v>-6.0249999999999998E-2</v>
+        <v>-0.5</v>
       </c>
       <c r="F19" s="3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>-0.24099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
@@ -1905,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O19" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" s="7">
         <v>0</v>
@@ -1935,20 +1941,21 @@
         <v>14</v>
       </c>
       <c r="C20" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <f>-100*0.241/400</f>
+        <v>-6.0249999999999998E-2</v>
       </c>
       <c r="F20" s="3">
         <v>70</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.24099999999999999</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="2"/>
@@ -1970,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P20" s="7">
         <v>0</v>
@@ -1999,11 +2006,11 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="13">
-        <v>20</v>
+      <c r="C21" s="14">
+        <v>19</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2035,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O21" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7">
         <v>0</v>
@@ -2062,19 +2069,19 @@
         <v>Red</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="13">
+        <v>20</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
@@ -2084,14 +2091,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1</v>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -2099,11 +2106,11 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="8">
-        <v>20</v>
+      <c r="N22" s="7">
+        <v>19</v>
       </c>
       <c r="O22" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7">
         <v>0</v>
@@ -2129,8 +2136,8 @@
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="13">
-        <v>22</v>
+      <c r="C23" s="14">
+        <v>21</v>
       </c>
       <c r="D23" s="3">
         <v>100</v>
@@ -2149,14 +2156,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
+      <c r="I23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -2164,11 +2171,11 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>21</v>
+      <c r="N23" s="8">
+        <v>20</v>
       </c>
       <c r="O23" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7">
         <v>0</v>
@@ -2194,8 +2201,8 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="14">
-        <v>23</v>
+      <c r="C24" s="13">
+        <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>100</v>
@@ -2230,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7">
         <v>0</v>
@@ -2257,19 +2264,19 @@
         <v>Red</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
@@ -2291,14 +2298,14 @@
       <c r="L25" s="7">
         <v>0</v>
       </c>
-      <c r="M25" s="6">
-        <v>1</v>
+      <c r="M25" s="7">
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P25" s="7">
         <v>0</v>
@@ -2324,8 +2331,8 @@
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="13">
-        <v>25</v>
+      <c r="C26" s="14">
+        <v>24</v>
       </c>
       <c r="D26" s="3">
         <v>50</v>
@@ -2344,14 +2351,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1</v>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
       </c>
       <c r="L26" s="7">
         <v>0</v>
@@ -2359,11 +2366,11 @@
       <c r="M26" s="6">
         <v>1</v>
       </c>
-      <c r="N26" s="8">
-        <v>24</v>
+      <c r="N26" s="7">
+        <v>23</v>
       </c>
       <c r="O26" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P26" s="7">
         <v>0</v>
@@ -2389,8 +2396,8 @@
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="14">
-        <v>26</v>
+      <c r="C27" s="13">
+        <v>25</v>
       </c>
       <c r="D27" s="3">
         <v>50</v>
@@ -2409,14 +2416,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
+      <c r="I27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
       </c>
       <c r="L27" s="7">
         <v>0</v>
@@ -2424,11 +2431,11 @@
       <c r="M27" s="6">
         <v>1</v>
       </c>
-      <c r="N27" s="7">
-        <v>25</v>
+      <c r="N27" s="8">
+        <v>24</v>
       </c>
       <c r="O27" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7">
         <v>0</v>
@@ -2454,8 +2461,8 @@
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="13">
-        <v>27</v>
+      <c r="C28" s="14">
+        <v>26</v>
       </c>
       <c r="D28" s="3">
         <v>50</v>
@@ -2489,25 +2496,25 @@
       <c r="M28" s="6">
         <v>1</v>
       </c>
-      <c r="N28" s="8">
-        <v>26</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>44</v>
+      <c r="N28" s="7">
+        <v>25</v>
+      </c>
+      <c r="O28" s="11">
+        <v>27</v>
       </c>
       <c r="P28" s="7">
         <v>0</v>
       </c>
-      <c r="Q28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7" t="b">
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2519,8 +2526,8 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="14">
-        <v>28</v>
+      <c r="C29" s="13">
+        <v>27</v>
       </c>
       <c r="D29" s="3">
         <v>50</v>
@@ -2554,25 +2561,25 @@
       <c r="M29" s="6">
         <v>1</v>
       </c>
-      <c r="N29" s="7">
-        <v>27</v>
-      </c>
-      <c r="O29" s="11">
-        <v>29</v>
+      <c r="N29" s="8">
+        <v>26</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="P29" s="7">
         <v>0</v>
       </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7">
+      <c r="Q29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2585,10 +2592,10 @@
         <v>16</v>
       </c>
       <c r="C30" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2620,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O30" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P30" s="7">
         <v>0</v>
@@ -2649,8 +2656,8 @@
       <c r="B31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="13">
-        <v>30</v>
+      <c r="C31" s="14">
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>60</v>
@@ -2685,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O31" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P31" s="7">
         <v>0</v>
@@ -2714,11 +2721,11 @@
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="14">
-        <v>31</v>
+      <c r="C32" s="13">
+        <v>30</v>
       </c>
       <c r="D32" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2750,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O32" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7">
         <v>0</v>
@@ -2779,8 +2786,8 @@
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="13">
-        <v>32</v>
+      <c r="C33" s="14">
+        <v>31</v>
       </c>
       <c r="D33" s="3">
         <v>50</v>
@@ -2814,11 +2821,11 @@
       <c r="M33" s="6">
         <v>1</v>
       </c>
-      <c r="N33" s="8">
-        <v>31</v>
+      <c r="N33" s="7">
+        <v>30</v>
       </c>
       <c r="O33" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P33" s="7">
         <v>0</v>
@@ -2844,8 +2851,8 @@
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="14">
-        <v>33</v>
+      <c r="C34" s="13">
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>50</v>
@@ -2857,7 +2864,7 @@
         <v>70</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ref="G34:G65" si="3">E34*D34/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="4">
@@ -2879,26 +2886,26 @@
       <c r="M34" s="6">
         <v>1</v>
       </c>
-      <c r="N34" s="7" t="s">
-        <v>51</v>
+      <c r="N34" s="8">
+        <v>31</v>
       </c>
       <c r="O34" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P34" s="7">
         <v>0</v>
       </c>
-      <c r="Q34" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7" t="b">
-        <v>1</v>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -2910,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
         <v>50</v>
@@ -2922,7 +2929,7 @@
         <v>70</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G35:G66" si="3">E35*D35/100</f>
         <v>0</v>
       </c>
       <c r="H35" s="4">
@@ -2944,26 +2951,26 @@
       <c r="M35" s="6">
         <v>1</v>
       </c>
-      <c r="N35" s="7">
-        <v>33</v>
+      <c r="N35" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O35" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P35" s="7">
         <v>0</v>
       </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
-        <v>0</v>
-      </c>
-      <c r="T35" s="7">
-        <v>0</v>
+      <c r="Q35" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -2974,8 +2981,8 @@
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="13">
-        <v>35</v>
+      <c r="C36" s="14">
+        <v>34</v>
       </c>
       <c r="D36" s="3">
         <v>50</v>
@@ -2994,14 +3001,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="6">
-        <v>1</v>
-      </c>
-      <c r="K36" s="6">
-        <v>1</v>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
       </c>
       <c r="L36" s="7">
         <v>0</v>
@@ -3009,11 +3016,11 @@
       <c r="M36" s="6">
         <v>1</v>
       </c>
-      <c r="N36" s="8">
-        <v>34</v>
+      <c r="N36" s="7">
+        <v>33</v>
       </c>
       <c r="O36" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P36" s="7">
         <v>0</v>
@@ -3039,8 +3046,8 @@
       <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="14">
-        <v>36</v>
+      <c r="C37" s="13">
+        <v>35</v>
       </c>
       <c r="D37" s="3">
         <v>50</v>
@@ -3059,14 +3066,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>0</v>
+      <c r="I37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
       </c>
       <c r="L37" s="7">
         <v>0</v>
@@ -3074,11 +3081,11 @@
       <c r="M37" s="6">
         <v>1</v>
       </c>
-      <c r="N37" s="7">
-        <v>35</v>
+      <c r="N37" s="8">
+        <v>34</v>
       </c>
       <c r="O37" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P37" s="7">
         <v>0</v>
@@ -3098,14 +3105,14 @@
     </row>
     <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="3">
         <v>50</v>
@@ -3140,10 +3147,10 @@
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O38" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P38" s="7">
         <v>0</v>
@@ -3163,14 +3170,14 @@
     </row>
     <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A35</f>
         <v>Red</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="13">
-        <v>38</v>
+      <c r="C39" s="14">
+        <v>37</v>
       </c>
       <c r="D39" s="3">
         <v>50</v>
@@ -3204,25 +3211,25 @@
       <c r="M39" s="6">
         <v>1</v>
       </c>
-      <c r="N39" s="8">
-        <v>37</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>43</v>
+      <c r="N39" s="7">
+        <v>36</v>
+      </c>
+      <c r="O39" s="11">
+        <v>38</v>
       </c>
       <c r="P39" s="7">
         <v>0</v>
       </c>
-      <c r="Q39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="b">
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3234,8 +3241,8 @@
       <c r="B40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="14">
-        <v>39</v>
+      <c r="C40" s="13">
+        <v>38</v>
       </c>
       <c r="D40" s="3">
         <v>50</v>
@@ -3269,25 +3276,25 @@
       <c r="M40" s="6">
         <v>1</v>
       </c>
-      <c r="N40" s="7">
-        <v>38</v>
-      </c>
-      <c r="O40" s="11">
-        <v>40</v>
+      <c r="N40" s="8">
+        <v>37</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="P40" s="7">
         <v>0</v>
       </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7">
+      <c r="Q40" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3300,10 +3307,10 @@
         <v>16</v>
       </c>
       <c r="C41" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3335,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O41" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P41" s="7">
         <v>0</v>
@@ -3364,8 +3371,8 @@
       <c r="B42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="13">
-        <v>41</v>
+      <c r="C42" s="14">
+        <v>40</v>
       </c>
       <c r="D42" s="3">
         <v>60</v>
@@ -3400,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O42" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P42" s="7">
         <v>0</v>
@@ -3429,11 +3436,11 @@
       <c r="B43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="14">
-        <v>42</v>
+      <c r="C43" s="13">
+        <v>41</v>
       </c>
       <c r="D43" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3465,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O43" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" s="7">
         <v>0</v>
@@ -3495,7 +3502,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="3">
         <v>50</v>
@@ -3529,11 +3536,11 @@
       <c r="M44" s="6">
         <v>1</v>
       </c>
-      <c r="N44" s="8">
-        <v>42</v>
+      <c r="N44" s="7">
+        <v>41</v>
       </c>
       <c r="O44" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P44" s="7">
         <v>0</v>
@@ -3559,8 +3566,8 @@
       <c r="B45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="13">
-        <v>44</v>
+      <c r="C45" s="14">
+        <v>43</v>
       </c>
       <c r="D45" s="3">
         <v>50</v>
@@ -3594,26 +3601,26 @@
       <c r="M45" s="6">
         <v>1</v>
       </c>
-      <c r="N45" s="7" t="s">
-        <v>52</v>
+      <c r="N45" s="8">
+        <v>42</v>
       </c>
       <c r="O45" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P45" s="7">
         <v>0</v>
       </c>
-      <c r="Q45" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R45" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S45" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T45" s="7" t="b">
-        <v>1</v>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -3624,8 +3631,8 @@
       <c r="B46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="14">
-        <v>45</v>
+      <c r="C46" s="13">
+        <v>44</v>
       </c>
       <c r="D46" s="3">
         <v>50</v>
@@ -3644,14 +3651,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="6">
-        <v>1</v>
-      </c>
-      <c r="K46" s="6">
-        <v>1</v>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
       </c>
       <c r="L46" s="7">
         <v>0</v>
@@ -3659,26 +3666,26 @@
       <c r="M46" s="6">
         <v>1</v>
       </c>
-      <c r="N46" s="8">
-        <v>44</v>
+      <c r="N46" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="O46" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="7">
         <v>0</v>
       </c>
-      <c r="Q46" s="7">
-        <v>0</v>
-      </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-      <c r="S46" s="7">
-        <v>0</v>
-      </c>
-      <c r="T46" s="7">
-        <v>0</v>
+      <c r="Q46" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -3687,13 +3694,13 @@
         <v>Red</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3709,14 +3716,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7">
-        <v>0</v>
+      <c r="I47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1</v>
       </c>
       <c r="L47" s="7">
         <v>0</v>
@@ -3724,11 +3731,11 @@
       <c r="M47" s="6">
         <v>1</v>
       </c>
-      <c r="N47" s="7">
-        <v>45</v>
+      <c r="N47" s="8">
+        <v>44</v>
       </c>
       <c r="O47" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P47" s="7">
         <v>0</v>
@@ -3754,8 +3761,8 @@
       <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="13">
-        <v>47</v>
+      <c r="C48" s="14">
+        <v>46</v>
       </c>
       <c r="D48" s="3">
         <v>75</v>
@@ -3783,17 +3790,17 @@
       <c r="K48" s="7">
         <v>0</v>
       </c>
-      <c r="L48" s="6">
-        <v>1</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="8">
-        <v>46</v>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7">
+        <v>45</v>
       </c>
       <c r="O48" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P48" s="7">
         <v>0</v>
@@ -3819,8 +3826,8 @@
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="14">
-        <v>48</v>
+      <c r="C49" s="13">
+        <v>47</v>
       </c>
       <c r="D49" s="3">
         <v>75</v>
@@ -3839,26 +3846,26 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1</v>
-      </c>
-      <c r="K49" s="6">
-        <v>1</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0</v>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
       <c r="N49" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O49" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P49" s="7">
         <v>0</v>
@@ -3882,19 +3889,19 @@
         <v>Red</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
       </c>
       <c r="F50" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="3"/>
@@ -3904,14 +3911,14 @@
         <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0</v>
+      <c r="I50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1</v>
       </c>
       <c r="L50" s="7">
         <v>0</v>
@@ -3919,11 +3926,11 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
-      <c r="N50" s="7">
-        <v>48</v>
+      <c r="N50" s="8">
+        <v>47</v>
       </c>
       <c r="O50" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P50" s="7">
         <v>0</v>
@@ -3949,8 +3956,8 @@
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="13">
-        <v>50</v>
+      <c r="C51" s="14">
+        <v>49</v>
       </c>
       <c r="D51" s="3">
         <v>50</v>
@@ -3985,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O51" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P51" s="7">
         <v>0</v>
@@ -4014,8 +4021,8 @@
       <c r="B52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="14">
-        <v>51</v>
+      <c r="C52" s="13">
+        <v>50</v>
       </c>
       <c r="D52" s="3">
         <v>50</v>
@@ -4024,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="3"/>
@@ -4050,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O52" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P52" s="7">
         <v>0</v>
@@ -4080,10 +4087,10 @@
         <v>18</v>
       </c>
       <c r="C53" s="14">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3">
-        <v>43.2</v>
+        <v>50</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -4115,24 +4122,24 @@
         <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>51</v>
-      </c>
-      <c r="O53" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="O53" s="11">
+        <v>52</v>
       </c>
       <c r="P53" s="7">
         <v>0</v>
       </c>
-      <c r="Q53" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S53" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T53" s="7" t="b">
+      <c r="Q53" s="7">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="7">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4144,11 +4151,11 @@
       <c r="B54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="13">
-        <v>53</v>
+      <c r="C54" s="14">
+        <v>52</v>
       </c>
       <c r="D54" s="3">
-        <v>50</v>
+        <v>43.2</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -4180,24 +4187,24 @@
         <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>52</v>
-      </c>
-      <c r="O54" s="11">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="P54" s="7">
         <v>0</v>
       </c>
-      <c r="Q54" s="7">
-        <v>0</v>
-      </c>
-      <c r="R54" s="7">
-        <v>0</v>
-      </c>
-      <c r="S54" s="7">
-        <v>0</v>
-      </c>
-      <c r="T54" s="7">
+      <c r="Q54" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4209,8 +4216,8 @@
       <c r="B55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="14">
-        <v>54</v>
+      <c r="C55" s="13">
+        <v>53</v>
       </c>
       <c r="D55" s="3">
         <v>50</v>
@@ -4245,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O55" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P55" s="7">
         <v>0</v>
@@ -4272,27 +4279,27 @@
         <v>Red</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="14">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E56" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3">
         <v>55</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" si="2"/>
-        <v>-0.8660000000000001</v>
+        <v>-1.2410000000000001</v>
       </c>
       <c r="I56" s="7">
         <v>0</v>
@@ -4310,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O56" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -4339,8 +4346,8 @@
       <c r="B57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="13">
-        <v>56</v>
+      <c r="C57" s="14">
+        <v>55</v>
       </c>
       <c r="D57" s="3">
         <v>75</v>
@@ -4357,7 +4364,7 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" si="2"/>
-        <v>-0.4910000000000001</v>
+        <v>-0.8660000000000001</v>
       </c>
       <c r="I57" s="7">
         <v>0</v>
@@ -4375,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O57" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -4404,8 +4411,8 @@
       <c r="B58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="14">
-        <v>57</v>
+      <c r="C58" s="13">
+        <v>56</v>
       </c>
       <c r="D58" s="3">
         <v>75</v>
@@ -4422,7 +4429,7 @@
       </c>
       <c r="H58" s="4">
         <f t="shared" si="2"/>
-        <v>-0.1160000000000001</v>
+        <v>-0.4910000000000001</v>
       </c>
       <c r="I58" s="7">
         <v>0</v>
@@ -4440,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O58" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -4467,27 +4474,27 @@
         <v>Red</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="14">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="3">
         <v>75</v>
       </c>
       <c r="E59" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F59" s="3">
         <v>55</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="H59" s="4">
         <f t="shared" si="2"/>
-        <v>0.6339999999999999</v>
+        <v>-0.1160000000000001</v>
       </c>
       <c r="I59" s="7">
         <v>0</v>
@@ -4505,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O59" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P59" s="7">
         <v>0</v>
@@ -4534,25 +4541,25 @@
       <c r="B60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="13">
-        <v>59</v>
+      <c r="C60" s="14">
+        <v>58</v>
       </c>
       <c r="D60" s="3">
         <v>75</v>
       </c>
       <c r="E60" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3">
         <v>55</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" si="2"/>
-        <v>1.0089999999999999</v>
+        <v>0.6339999999999999</v>
       </c>
       <c r="I60" s="7">
         <v>0</v>
@@ -4570,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O60" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P60" s="7">
         <v>0</v>
@@ -4599,34 +4606,34 @@
       <c r="B61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="14">
-        <v>60</v>
+      <c r="C61" s="13">
+        <v>59</v>
       </c>
       <c r="D61" s="3">
         <v>75</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F61" s="3">
         <v>55</v>
       </c>
       <c r="G61" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="H61" s="4">
         <f t="shared" si="2"/>
         <v>1.0089999999999999</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J61" s="6">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6">
-        <v>1</v>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
       </c>
       <c r="L61" s="7">
         <v>0</v>
@@ -4634,11 +4641,11 @@
       <c r="M61" s="7">
         <v>0</v>
       </c>
-      <c r="N61" s="8">
-        <v>59</v>
+      <c r="N61" s="7">
+        <v>58</v>
       </c>
       <c r="O61" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
@@ -4662,36 +4669,36 @@
         <v>Red</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="14">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="3">
         <v>75</v>
       </c>
       <c r="E62" s="3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>55</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" si="3"/>
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="H62" s="4">
         <f t="shared" si="2"/>
-        <v>0.6339999999999999</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
-        <v>0</v>
-      </c>
-      <c r="K62" s="7">
-        <v>0</v>
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="6">
+        <v>1</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1</v>
       </c>
       <c r="L62" s="7">
         <v>0</v>
@@ -4699,11 +4706,11 @@
       <c r="M62" s="7">
         <v>0</v>
       </c>
-      <c r="N62" s="7">
-        <v>60</v>
+      <c r="N62" s="8">
+        <v>59</v>
       </c>
       <c r="O62" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P62" s="7">
         <v>0</v>
@@ -4729,25 +4736,25 @@
       <c r="B63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="13">
-        <v>62</v>
+      <c r="C63" s="14">
+        <v>61</v>
       </c>
       <c r="D63" s="3">
         <v>75</v>
       </c>
       <c r="E63" s="3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="F63" s="3">
         <v>55</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" si="3"/>
-        <v>-0.75</v>
+        <v>-0.375</v>
       </c>
       <c r="H63" s="4">
         <f t="shared" si="2"/>
-        <v>-0.1160000000000001</v>
+        <v>0.6339999999999999</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
@@ -4765,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O63" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P63" s="7">
         <v>0</v>
@@ -4794,8 +4801,8 @@
       <c r="B64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="14">
-        <v>63</v>
+      <c r="C64" s="13">
+        <v>62</v>
       </c>
       <c r="D64" s="3">
         <v>75</v>
@@ -4812,7 +4819,7 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" si="2"/>
-        <v>-0.8660000000000001</v>
+        <v>-0.1160000000000001</v>
       </c>
       <c r="I64" s="7">
         <v>0</v>
@@ -4830,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O64" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P64" s="7">
         <v>0</v>
@@ -4857,27 +4864,27 @@
         <v>Red</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="3">
         <v>75</v>
       </c>
       <c r="E65" s="3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="F65" s="3">
         <v>55</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" si="3"/>
-        <v>-0.375</v>
+        <v>-0.75</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
+        <v>-0.8660000000000001</v>
       </c>
       <c r="I65" s="7">
         <v>0</v>
@@ -4895,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O65" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P65" s="7">
         <v>0</v>
@@ -4924,21 +4931,21 @@
       <c r="B66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="13">
-        <v>65</v>
+      <c r="C66" s="14">
+        <v>64</v>
       </c>
       <c r="D66" s="3">
         <v>75</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F66" s="3">
         <v>55</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" ref="G66:G77" si="4">E66*D66/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-0.375</v>
       </c>
       <c r="H66" s="4">
         <f t="shared" si="2"/>
@@ -4960,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O66" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P66" s="7">
         <v>0</v>
@@ -4989,8 +4996,8 @@
       <c r="B67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="14">
-        <v>66</v>
+      <c r="C67" s="13">
+        <v>65</v>
       </c>
       <c r="D67" s="3">
         <v>75</v>
@@ -5002,7 +5009,7 @@
         <v>55</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G67:G78" si="4">E67*D67/100</f>
         <v>0</v>
       </c>
       <c r="H67" s="4">
@@ -5025,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O67" s="11">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P67" s="7">
         <v>0</v>
@@ -5048,17 +5055,17 @@
     </row>
     <row r="68" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
-        <f t="shared" ref="A68:A77" si="5">A67</f>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" s="14">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
@@ -5071,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H77" si="6">G68+H67</f>
+        <f t="shared" si="2"/>
         <v>-1.2410000000000001</v>
       </c>
       <c r="I68" s="7">
@@ -5086,14 +5093,14 @@
       <c r="L68" s="7">
         <v>0</v>
       </c>
-      <c r="M68" s="6">
-        <v>1</v>
+      <c r="M68" s="7">
+        <v>0</v>
       </c>
       <c r="N68" s="7">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="O68" s="11">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P68" s="7">
         <v>0</v>
@@ -5113,14 +5120,14 @@
     </row>
     <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A69:A78" si="5">A68</f>
         <v>Red</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="13">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="C69" s="14">
+        <v>67</v>
       </c>
       <c r="D69" s="3">
         <v>50</v>
@@ -5136,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H69:H78" si="6">G69+H68</f>
         <v>-1.2410000000000001</v>
       </c>
       <c r="I69" s="7">
@@ -5155,10 +5162,10 @@
         <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="O69" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P69" s="7">
         <v>0</v>
@@ -5184,8 +5191,8 @@
       <c r="B70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="14">
-        <v>69</v>
+      <c r="C70" s="13">
+        <v>68</v>
       </c>
       <c r="D70" s="3">
         <v>50</v>
@@ -5220,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="N70" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O70" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P70" s="7">
         <v>0</v>
@@ -5250,7 +5257,7 @@
         <v>24</v>
       </c>
       <c r="C71" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="3">
         <v>50</v>
@@ -5285,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="N71" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O71" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P71" s="7">
         <v>0</v>
@@ -5312,10 +5319,10 @@
         <v>Red</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="13">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="C72" s="14">
+        <v>70</v>
       </c>
       <c r="D72" s="3">
         <v>50</v>
@@ -5350,10 +5357,10 @@
         <v>1</v>
       </c>
       <c r="N72" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O72" s="11">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="P72" s="7">
         <v>0</v>
@@ -5377,10 +5384,10 @@
         <v>Red</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="14">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="C73" s="13">
+        <v>71</v>
       </c>
       <c r="D73" s="3">
         <v>50</v>
@@ -5415,10 +5422,10 @@
         <v>1</v>
       </c>
       <c r="N73" s="7">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="O73" s="11">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="P73" s="7">
         <v>0</v>
@@ -5442,10 +5449,10 @@
         <v>Red</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="14">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3">
         <v>50</v>
@@ -5480,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="N74" s="7">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="O74" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P74" s="7">
         <v>0</v>
@@ -5509,8 +5516,8 @@
       <c r="B75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="13">
-        <v>74</v>
+      <c r="C75" s="14">
+        <v>73</v>
       </c>
       <c r="D75" s="3">
         <v>50</v>
@@ -5545,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="N75" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O75" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P75" s="7">
         <v>0</v>
@@ -5574,8 +5581,8 @@
       <c r="B76" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="14">
-        <v>75</v>
+      <c r="C76" s="13">
+        <v>74</v>
       </c>
       <c r="D76" s="3">
         <v>50</v>
@@ -5610,10 +5617,10 @@
         <v>1</v>
       </c>
       <c r="N76" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O76" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P76" s="7">
         <v>0</v>
@@ -5637,10 +5644,10 @@
         <v>Red</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="14">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3">
         <v>50</v>
@@ -5675,37 +5682,91 @@
         <v>1</v>
       </c>
       <c r="N77" s="7">
+        <v>74</v>
+      </c>
+      <c r="O77" s="11">
+        <v>76</v>
+      </c>
+      <c r="P77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Red</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="14">
+        <v>76</v>
+      </c>
+      <c r="D78" s="3">
+        <v>50</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>55</v>
+      </c>
+      <c r="G78" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="6"/>
+        <v>-1.2410000000000001</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6">
+        <v>1</v>
+      </c>
+      <c r="N78" s="7">
         <v>75</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O78" s="11">
         <v>27</v>
       </c>
-      <c r="P77" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="7">
-        <v>0</v>
-      </c>
-      <c r="R77" s="7">
-        <v>0</v>
-      </c>
-      <c r="S77" s="7">
-        <v>0</v>
-      </c>
-      <c r="T77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="N78" s="7"/>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
@@ -6544,8 +6605,8 @@
       <c r="N154" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:P1048576 Q1:T77">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="I2:T78">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TrackModel/trackData/RedLine.xlsx
+++ b/TrackModel/trackData/RedLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="8_{5EB43690-1D4F-4934-BBB3-BD20CB8703B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCB5556C-8F29-447C-B3E4-58FB340723F5}"/>
+  <xr:revisionPtr revIDLastSave="570" documentId="8_{5EB43690-1D4F-4934-BBB3-BD20CB8703B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE237AFD-2725-4C7C-BB89-7409F50BC40A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08686E32-804F-406E-AD85-9F8933DC79CB}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{08686E32-804F-406E-AD85-9F8933DC79CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,12 +337,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0"/>
@@ -680,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2178A43-3C40-4266-92C4-0E9FE44E2BDB}">
   <dimension ref="A1:T154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1515,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6606,7 +6601,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:T78">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TrackModel/trackData/RedLine.xlsx
+++ b/TrackModel/trackData/RedLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="8_{5EB43690-1D4F-4934-BBB3-BD20CB8703B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE237AFD-2725-4C7C-BB89-7409F50BC40A}"/>
+  <xr:revisionPtr revIDLastSave="594" documentId="8_{5EB43690-1D4F-4934-BBB3-BD20CB8703B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A571C328-491E-4154-B075-E55F3612D132}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{08686E32-804F-406E-AD85-9F8933DC79CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08686E32-804F-406E-AD85-9F8933DC79CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Line</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Left Door</t>
   </si>
   <si>
-    <t>10, 0</t>
-  </si>
-  <si>
     <t>15, 1</t>
   </si>
   <si>
@@ -210,6 +207,12 @@
   </si>
   <si>
     <t>Yard</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>10, 77</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -675,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2178A43-3C40-4266-92C4-0E9FE44E2BDB}">
   <dimension ref="A1:T154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,16 +757,16 @@
         <v>46</v>
       </c>
       <c r="Q1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -766,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -801,11 +809,11 @@
       <c r="M2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="6">
-        <v>0</v>
+      <c r="N2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="O2" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -1389,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7">
         <v>0</v>
@@ -1841,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18" s="11">
         <v>17</v>
@@ -2947,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O35" s="11">
         <v>34</v>
@@ -3662,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O46" s="11">
         <v>45</v>
@@ -5004,7 +5012,7 @@
         <v>55</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ref="G67:G78" si="4">E67*D67/100</f>
+        <f t="shared" ref="G67:G79" si="4">E67*D67/100</f>
         <v>0</v>
       </c>
       <c r="H67" s="4">
@@ -5764,15 +5772,67 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="N79" s="7"/>
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="13">
+        <v>77</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>10</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0</v>
+      </c>
+      <c r="M79" s="6">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="11">
+        <v>77</v>
+      </c>
+      <c r="P79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>0</v>
+      </c>
+      <c r="T79" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
@@ -6600,8 +6660,8 @@
       <c r="N154" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:T78">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="I2:T79">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
